--- a/Modulo4/out/info_partidos/data_Wyoming.xlsx
+++ b/Modulo4/out/info_partidos/data_Wyoming.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="52">
   <si>
     <t>state</t>
   </si>
@@ -40,15 +40,6 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>letra_inicial</t>
-  </si>
-  <si>
-    <t>FIPStxt</t>
-  </si>
-  <si>
-    <t>PCTPOVALL_2015</t>
-  </si>
-  <si>
     <t>Wyoming</t>
   </si>
   <si>
@@ -124,16 +115,61 @@
     <t>Weston</t>
   </si>
   <si>
+    <t>Albany-Natrona</t>
+  </si>
+  <si>
+    <t>Campbell-Johnson</t>
+  </si>
+  <si>
+    <t>Converse-Niobrara</t>
+  </si>
+  <si>
+    <t>Crook-Weston</t>
+  </si>
+  <si>
+    <t>Fremont-Park</t>
+  </si>
+  <si>
+    <t>Goshen-Platte</t>
+  </si>
+  <si>
+    <t>Hot Springs-Washakie</t>
+  </si>
+  <si>
+    <t>Sheridan-Big Horn</t>
+  </si>
+  <si>
+    <t>Sweetwater-Carbon</t>
+  </si>
+  <si>
+    <t>Teton-Sublette</t>
+  </si>
+  <si>
+    <t>Uinta-Lincoln</t>
+  </si>
+  <si>
     <t>Democrat</t>
   </si>
   <si>
+    <t>Republican</t>
+  </si>
+  <si>
     <t>Bernie Sanders</t>
   </si>
   <si>
     <t>Hillary Clinton</t>
   </si>
   <si>
-    <t>W</t>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>John Kasich</t>
+  </si>
+  <si>
+    <t>Marco Rubio</t>
+  </si>
+  <si>
+    <t>Ted Cruz</t>
   </si>
 </sst>
 </file>
@@ -491,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,34 +558,25 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
       <c r="D2">
         <v>56001</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G2">
         <v>25</v>
@@ -557,34 +584,25 @@
       <c r="H2">
         <v>0.758</v>
       </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2">
-        <v>56001</v>
-      </c>
-      <c r="K2">
-        <v>20.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>56001</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -592,34 +610,25 @@
       <c r="H3">
         <v>0.242</v>
       </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3">
-        <v>56001</v>
-      </c>
-      <c r="K3">
-        <v>20.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4">
         <v>56003</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -627,34 +636,25 @@
       <c r="H4">
         <v>0.5</v>
       </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4">
-        <v>56003</v>
-      </c>
-      <c r="K4">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
       <c r="D5">
         <v>56003</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -662,34 +662,25 @@
       <c r="H5">
         <v>0.5</v>
       </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5">
-        <v>56003</v>
-      </c>
-      <c r="K5">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
       </c>
       <c r="D6">
         <v>56005</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -697,69 +688,51 @@
       <c r="H6">
         <v>0.667</v>
       </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6">
-        <v>56005</v>
-      </c>
-      <c r="K6">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
       </c>
       <c r="D7">
         <v>56005</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7">
-        <v>0.333</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7">
-        <v>56005</v>
-      </c>
-      <c r="K7">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>0.3329999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>56007</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -767,34 +740,25 @@
       <c r="H8">
         <v>0.429</v>
       </c>
-      <c r="I8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8">
-        <v>56007</v>
-      </c>
-      <c r="K8">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>56007</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -802,34 +766,25 @@
       <c r="H9">
         <v>0.5710000000000001</v>
       </c>
-      <c r="I9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9">
-        <v>56007</v>
-      </c>
-      <c r="K9">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>56009</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -837,34 +792,25 @@
       <c r="H10">
         <v>0.6</v>
       </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10">
-        <v>56009</v>
-      </c>
-      <c r="K10">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>56009</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -872,34 +818,25 @@
       <c r="H11">
         <v>0.4</v>
       </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11">
-        <v>56009</v>
-      </c>
-      <c r="K11">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>56011</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -907,34 +844,25 @@
       <c r="H12">
         <v>0.5</v>
       </c>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12">
-        <v>56011</v>
-      </c>
-      <c r="K12">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>56011</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -942,34 +870,25 @@
       <c r="H13">
         <v>0.5</v>
       </c>
-      <c r="I13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13">
-        <v>56011</v>
-      </c>
-      <c r="K13">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>56013</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>10</v>
@@ -977,34 +896,25 @@
       <c r="H14">
         <v>0.5</v>
       </c>
-      <c r="I14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14">
-        <v>56013</v>
-      </c>
-      <c r="K14">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>56013</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -1012,34 +922,25 @@
       <c r="H15">
         <v>0.5</v>
       </c>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15">
-        <v>56013</v>
-      </c>
-      <c r="K15">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>56015</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1047,34 +948,25 @@
       <c r="H16">
         <v>0.4</v>
       </c>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16">
-        <v>56015</v>
-      </c>
-      <c r="K16">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>56015</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1082,34 +974,25 @@
       <c r="H17">
         <v>0.6</v>
       </c>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17">
-        <v>56015</v>
-      </c>
-      <c r="K17">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>56017</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1117,34 +1000,25 @@
       <c r="H18">
         <v>0.5</v>
       </c>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18">
-        <v>56017</v>
-      </c>
-      <c r="K18">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>56017</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1152,34 +1026,25 @@
       <c r="H19">
         <v>0.5</v>
       </c>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19">
-        <v>56017</v>
-      </c>
-      <c r="K19">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>56019</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1187,34 +1052,25 @@
       <c r="H20">
         <v>0.5</v>
       </c>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20">
-        <v>56019</v>
-      </c>
-      <c r="K20">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>56019</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1222,34 +1078,25 @@
       <c r="H21">
         <v>0.5</v>
       </c>
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21">
-        <v>56019</v>
-      </c>
-      <c r="K21">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <v>56021</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G22">
         <v>25</v>
@@ -1257,34 +1104,25 @@
       <c r="H22">
         <v>0.49</v>
       </c>
-      <c r="I22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22">
-        <v>56021</v>
-      </c>
-      <c r="K22">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>56021</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G23">
         <v>26</v>
@@ -1292,34 +1130,25 @@
       <c r="H23">
         <v>0.51</v>
       </c>
-      <c r="I23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23">
-        <v>56021</v>
-      </c>
-      <c r="K23">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D24">
         <v>56023</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1327,34 +1156,25 @@
       <c r="H24">
         <v>0.5</v>
       </c>
-      <c r="I24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24">
-        <v>56023</v>
-      </c>
-      <c r="K24">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <v>56023</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -1362,34 +1182,25 @@
       <c r="H25">
         <v>0.5</v>
       </c>
-      <c r="I25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25">
-        <v>56023</v>
-      </c>
-      <c r="K25">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>56025</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G26">
         <v>18</v>
@@ -1397,34 +1208,25 @@
       <c r="H26">
         <v>0.474</v>
       </c>
-      <c r="I26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26">
-        <v>56025</v>
-      </c>
-      <c r="K26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>56025</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G27">
         <v>20</v>
@@ -1432,34 +1234,25 @@
       <c r="H27">
         <v>0.526</v>
       </c>
-      <c r="I27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27">
-        <v>56025</v>
-      </c>
-      <c r="K27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D28">
         <v>56027</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1467,34 +1260,25 @@
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28">
-        <v>56027</v>
-      </c>
-      <c r="K28">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D29">
         <v>56027</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1502,34 +1286,25 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29">
-        <v>56027</v>
-      </c>
-      <c r="K29">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D30">
         <v>56029</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G30">
         <v>8</v>
@@ -1537,34 +1312,25 @@
       <c r="H30">
         <v>0.615</v>
       </c>
-      <c r="I30" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30">
-        <v>56029</v>
-      </c>
-      <c r="K30">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D31">
         <v>56029</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -1572,34 +1338,25 @@
       <c r="H31">
         <v>0.385</v>
       </c>
-      <c r="I31" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31">
-        <v>56029</v>
-      </c>
-      <c r="K31">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D32">
         <v>56031</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1607,69 +1364,51 @@
       <c r="H32">
         <v>0.667</v>
       </c>
-      <c r="I32" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32">
-        <v>56031</v>
-      </c>
-      <c r="K32">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D33">
         <v>56031</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>0.333</v>
-      </c>
-      <c r="I33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33">
-        <v>56031</v>
-      </c>
-      <c r="K33">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>0.3329999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D34">
         <v>56033</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -1677,34 +1416,25 @@
       <c r="H34">
         <v>0.5</v>
       </c>
-      <c r="I34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J34">
-        <v>56033</v>
-      </c>
-      <c r="K34">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D35">
         <v>56033</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -1712,34 +1442,25 @@
       <c r="H35">
         <v>0.5</v>
       </c>
-      <c r="I35" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35">
-        <v>56033</v>
-      </c>
-      <c r="K35">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D36">
         <v>56035</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -1747,34 +1468,25 @@
       <c r="H36">
         <v>0.75</v>
       </c>
-      <c r="I36" t="s">
-        <v>39</v>
-      </c>
-      <c r="J36">
-        <v>56035</v>
-      </c>
-      <c r="K36">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <v>56035</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1782,34 +1494,25 @@
       <c r="H37">
         <v>0.25</v>
       </c>
-      <c r="I37" t="s">
-        <v>39</v>
-      </c>
-      <c r="J37">
-        <v>56035</v>
-      </c>
-      <c r="K37">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>56037</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G38">
         <v>12</v>
@@ -1817,34 +1520,25 @@
       <c r="H38">
         <v>0.545</v>
       </c>
-      <c r="I38" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38">
-        <v>56037</v>
-      </c>
-      <c r="K38">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D39">
         <v>56037</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -1852,34 +1546,25 @@
       <c r="H39">
         <v>0.455</v>
       </c>
-      <c r="I39" t="s">
-        <v>39</v>
-      </c>
-      <c r="J39">
-        <v>56037</v>
-      </c>
-      <c r="K39">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D40">
         <v>56039</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G40">
         <v>9</v>
@@ -1887,34 +1572,25 @@
       <c r="H40">
         <v>0.6</v>
       </c>
-      <c r="I40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J40">
-        <v>56039</v>
-      </c>
-      <c r="K40">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D41">
         <v>56039</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G41">
         <v>6</v>
@@ -1922,34 +1598,25 @@
       <c r="H41">
         <v>0.4</v>
       </c>
-      <c r="I41" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41">
-        <v>56039</v>
-      </c>
-      <c r="K41">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D42">
         <v>56041</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -1957,34 +1624,25 @@
       <c r="H42">
         <v>0.556</v>
       </c>
-      <c r="I42" t="s">
-        <v>39</v>
-      </c>
-      <c r="J42">
-        <v>56041</v>
-      </c>
-      <c r="K42">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D43">
         <v>56041</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -1992,69 +1650,51 @@
       <c r="H43">
         <v>0.444</v>
       </c>
-      <c r="I43" t="s">
-        <v>39</v>
-      </c>
-      <c r="J43">
-        <v>56041</v>
-      </c>
-      <c r="K43">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D44">
         <v>56043</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>0.333</v>
-      </c>
-      <c r="I44" t="s">
-        <v>39</v>
-      </c>
-      <c r="J44">
-        <v>56043</v>
-      </c>
-      <c r="K44">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>0.3329999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D45">
         <v>56043</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -2062,34 +1702,25 @@
       <c r="H45">
         <v>0.667</v>
       </c>
-      <c r="I45" t="s">
-        <v>39</v>
-      </c>
-      <c r="J45">
-        <v>56043</v>
-      </c>
-      <c r="K45">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D46">
         <v>56045</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2097,34 +1728,25 @@
       <c r="H46">
         <v>0.5</v>
       </c>
-      <c r="I46" t="s">
-        <v>39</v>
-      </c>
-      <c r="J46">
-        <v>56045</v>
-      </c>
-      <c r="K46">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D47">
         <v>56045</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2132,14 +1754,1253 @@
       <c r="H47">
         <v>0.5</v>
       </c>
-      <c r="I47" t="s">
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48">
+        <v>95600025</v>
+      </c>
+      <c r="E48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49">
+        <v>95600025</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50">
+        <v>95600025</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50">
         <v>39</v>
       </c>
-      <c r="J47">
-        <v>56045</v>
-      </c>
-      <c r="K47">
-        <v>9.800000000000001</v>
+      <c r="H50">
+        <v>0.513</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51">
+        <v>95600025</v>
+      </c>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51">
+        <v>37</v>
+      </c>
+      <c r="H51">
+        <v>0.487</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52">
+        <v>95600032</v>
+      </c>
+      <c r="E52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53">
+        <v>95600032</v>
+      </c>
+      <c r="E53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54">
+        <v>95600032</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55">
+        <v>95600032</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55">
+        <v>68</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56">
+        <v>95600034</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" t="s">
+        <v>48</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57">
+        <v>95600034</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58">
+        <v>95600034</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58">
+        <v>35</v>
+      </c>
+      <c r="H58">
+        <v>0.479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59">
+        <v>95600034</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" t="s">
+        <v>51</v>
+      </c>
+      <c r="G59">
+        <v>38</v>
+      </c>
+      <c r="H59">
+        <v>0.521</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60">
+        <v>95600033</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61">
+        <v>95600033</v>
+      </c>
+      <c r="E61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" t="s">
+        <v>49</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62">
+        <v>95600033</v>
+      </c>
+      <c r="E62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63">
+        <v>95600033</v>
+      </c>
+      <c r="E63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" t="s">
+        <v>51</v>
+      </c>
+      <c r="G63">
+        <v>27</v>
+      </c>
+      <c r="H63">
+        <v>0.466</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64">
+        <v>95600029</v>
+      </c>
+      <c r="E64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G64">
+        <v>33</v>
+      </c>
+      <c r="H64">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65">
+        <v>95600029</v>
+      </c>
+      <c r="E65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" t="s">
+        <v>49</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66">
+        <v>95600029</v>
+      </c>
+      <c r="E66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67">
+        <v>95600029</v>
+      </c>
+      <c r="E67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" t="s">
+        <v>51</v>
+      </c>
+      <c r="G67">
+        <v>64</v>
+      </c>
+      <c r="H67">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68">
+        <v>95600035</v>
+      </c>
+      <c r="E68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69">
+        <v>95600035</v>
+      </c>
+      <c r="E69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70">
+        <v>95600035</v>
+      </c>
+      <c r="E70" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70" t="s">
+        <v>50</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71">
+        <v>95600035</v>
+      </c>
+      <c r="E71" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" t="s">
+        <v>51</v>
+      </c>
+      <c r="G71">
+        <v>83</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72">
+        <v>95600030</v>
+      </c>
+      <c r="E72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" t="s">
+        <v>48</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73">
+        <v>95600030</v>
+      </c>
+      <c r="E73" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73" t="s">
+        <v>49</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74">
+        <v>95600030</v>
+      </c>
+      <c r="E74" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" t="s">
+        <v>50</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75">
+        <v>95600030</v>
+      </c>
+      <c r="E75" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" t="s">
+        <v>51</v>
+      </c>
+      <c r="G75">
+        <v>43</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76">
+        <v>95600036</v>
+      </c>
+      <c r="E76" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" t="s">
+        <v>48</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77">
+        <v>95600036</v>
+      </c>
+      <c r="E77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" t="s">
+        <v>49</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78">
+        <v>95600036</v>
+      </c>
+      <c r="E78" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" t="s">
+        <v>50</v>
+      </c>
+      <c r="G78">
+        <v>38</v>
+      </c>
+      <c r="H78">
+        <v>0.176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79">
+        <v>95600036</v>
+      </c>
+      <c r="E79" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" t="s">
+        <v>51</v>
+      </c>
+      <c r="G79">
+        <v>141</v>
+      </c>
+      <c r="H79">
+        <v>0.653</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80">
+        <v>95600031</v>
+      </c>
+      <c r="E80" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" t="s">
+        <v>48</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81">
+        <v>95600031</v>
+      </c>
+      <c r="E81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81" t="s">
+        <v>49</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82">
+        <v>95600031</v>
+      </c>
+      <c r="E82" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" t="s">
+        <v>50</v>
+      </c>
+      <c r="G82">
+        <v>30</v>
+      </c>
+      <c r="H82">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83">
+        <v>95600031</v>
+      </c>
+      <c r="E83" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83" t="s">
+        <v>51</v>
+      </c>
+      <c r="G83">
+        <v>45</v>
+      </c>
+      <c r="H83">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84">
+        <v>95600026</v>
+      </c>
+      <c r="E84" t="s">
+        <v>45</v>
+      </c>
+      <c r="F84" t="s">
+        <v>48</v>
+      </c>
+      <c r="G84">
+        <v>16</v>
+      </c>
+      <c r="H84">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85">
+        <v>95600026</v>
+      </c>
+      <c r="E85" t="s">
+        <v>45</v>
+      </c>
+      <c r="F85" t="s">
+        <v>49</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86">
+        <v>95600026</v>
+      </c>
+      <c r="E86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F86" t="s">
+        <v>50</v>
+      </c>
+      <c r="G86">
+        <v>28</v>
+      </c>
+      <c r="H86">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87">
+        <v>95600026</v>
+      </c>
+      <c r="E87" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87">
+        <v>45</v>
+      </c>
+      <c r="H87">
+        <v>0.506</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88">
+        <v>95600028</v>
+      </c>
+      <c r="E88" t="s">
+        <v>45</v>
+      </c>
+      <c r="F88" t="s">
+        <v>48</v>
+      </c>
+      <c r="G88">
+        <v>21</v>
+      </c>
+      <c r="H88">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>42</v>
+      </c>
+      <c r="D89">
+        <v>95600028</v>
+      </c>
+      <c r="E89" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" t="s">
+        <v>49</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90">
+        <v>95600028</v>
+      </c>
+      <c r="E90" t="s">
+        <v>45</v>
+      </c>
+      <c r="F90" t="s">
+        <v>50</v>
+      </c>
+      <c r="G90">
+        <v>19</v>
+      </c>
+      <c r="H90">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91">
+        <v>95600028</v>
+      </c>
+      <c r="E91" t="s">
+        <v>45</v>
+      </c>
+      <c r="F91" t="s">
+        <v>51</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92">
+        <v>95600027</v>
+      </c>
+      <c r="E92" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" t="s">
+        <v>48</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93">
+        <v>95600027</v>
+      </c>
+      <c r="E93" t="s">
+        <v>45</v>
+      </c>
+      <c r="F93" t="s">
+        <v>49</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>43</v>
+      </c>
+      <c r="D94">
+        <v>95600027</v>
+      </c>
+      <c r="E94" t="s">
+        <v>45</v>
+      </c>
+      <c r="F94" t="s">
+        <v>50</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>43</v>
+      </c>
+      <c r="D95">
+        <v>95600027</v>
+      </c>
+      <c r="E95" t="s">
+        <v>45</v>
+      </c>
+      <c r="F95" t="s">
+        <v>51</v>
+      </c>
+      <c r="G95">
+        <v>53</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
